--- a/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
+++ b/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3152FE35-9CA1-4C75-A657-1FE2E8E5E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D77F3E-8C5E-4BCD-B06F-DB35760D38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
+    <sheet name="Centro" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +67,39 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Seq.</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Qtd.</t>
+  </si>
+  <si>
+    <t>Alt.</t>
+  </si>
+  <si>
+    <t>Larg.</t>
+  </si>
+  <si>
+    <t>Comp.</t>
+  </si>
+  <si>
+    <t>PotUnit</t>
+  </si>
+  <si>
+    <t>ValorUnit</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Descrição</t>
   </si>
 </sst>
 </file>
@@ -457,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5974222D-49E3-4ECF-BA70-A7A9C1E1D52D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -468,7 +502,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -488,6 +522,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BEF35E-837D-4B75-828A-028159EB7C46}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
+++ b/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D77F3E-8C5E-4BCD-B06F-DB35760D38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A0582-C62B-4929-90B8-4726547CA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdasdsad</t>
   </si>
 </sst>
 </file>
@@ -489,6 +495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5974222D-49E3-4ECF-BA70-A7A9C1E1D52D}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -537,7 +544,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BEF35E-837D-4B75-828A-028159EB7C46}">
-  <dimension ref="A1:J1"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,6 +583,38 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
+++ b/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A0582-C62B-4929-90B8-4726547CA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86EE3B-9FC5-4D33-B9D3-4C51139B1D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
-    <sheet name="Centro" sheetId="6" r:id="rId4"/>
+    <sheet name="Leste" sheetId="7" r:id="rId4"/>
+    <sheet name="Centro" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +107,24 @@
   </si>
   <si>
     <t>asdasdsad</t>
+  </si>
+  <si>
+    <t>Leste</t>
+  </si>
+  <si>
+    <t>GR02S</t>
+  </si>
+  <si>
+    <t>1,25</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Aplicação de Strobos</t>
   </si>
 </sst>
 </file>
@@ -509,7 +528,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -537,15 +556,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BEF35E-837D-4B75-828A-028159EB7C46}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F46BCC7-71EE-46BC-9DDE-0B6FD4AA96AA}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,6 +613,86 @@
       <c r="A2">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>236</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BEF35E-837D-4B75-828A-028159EB7C46}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>

--- a/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
+++ b/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86EE3B-9FC5-4D33-B9D3-4C51139B1D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6500D-4243-4C2D-8FF7-C01CF9C9A058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
         <v>236</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>

--- a/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
+++ b/orcamentos/Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6500D-4243-4C2D-8FF7-C01CF9C9A058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382775B5-8966-4173-86CC-ABB1A6D3CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Aplicação de Strobos</t>
+  </si>
+  <si>
+    <t>29/01/2023</t>
+  </si>
+  <si>
+    <t>Flávia Gaedke www</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -461,7 +467,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -505,6 +511,32 @@
       </c>
       <c r="F2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
